--- a/ISSUES_LIST.xlsx
+++ b/ISSUES_LIST.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISSUES" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ISSUES!$A$1:$E$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t xml:space="preserve">                                  ISSUES</t>
   </si>
@@ -109,13 +112,22 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>Surendra &amp; Arun</t>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Bhanu &amp; Rohit</t>
+  </si>
+  <si>
+    <t>Asad</t>
+  </si>
+  <si>
+    <t>Arun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -170,6 +182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,28 +462,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>13</v>
@@ -482,154 +496,157 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
@@ -638,6 +655,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E12" xr:uid="{D5E227AC-2E8D-4D72-A1EE-B50F28F06E60}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
